--- a/data/extracted_牛蛙塔可_v5.xlsx
+++ b/data/extracted_牛蛙塔可_v5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoedgar/Cases/27_Yum_ppsl/YumC-GenAI/data/VOC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoedgar/Cases/27_Yum_ppsl/ci-dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E63E7-BF81-1447-B471-48CE51FBBF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535BF403-9BBE-3A4B-B626-976EB5614D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3208,7 +3208,7 @@
     <t>龙虾塔克里的龙虾少了一点，建议多放点</t>
   </si>
   <si>
-    <t xml:space="preserve">product_related </t>
+    <t>product_related</t>
   </si>
 </sst>
 </file>
